--- a/data/trans_bre/P2C_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Habitat-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>0.5674489808181471</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.219959936894712</v>
+        <v>3.219959936894709</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2960362936314065</v>
@@ -649,7 +649,7 @@
         <v>0.01252867237753662</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.3722964913517652</v>
+        <v>0.3722964913517648</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>4.89816128712325</v>
+        <v>2.762377073578233</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.926668489671084</v>
+        <v>6.938920178894631</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-6.45448553821153</v>
+        <v>-6.100354723076801</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2259907376500345</v>
+        <v>0.07488785353727313</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.124360366085673</v>
+        <v>0.06983602301969583</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.120027088260917</v>
+        <v>0.1415051836334814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.1321147553706943</v>
+        <v>-0.1282378767392765</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.02666142918685379</v>
+        <v>0.00356139810549035</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>17.87968966746412</v>
+        <v>16.40734042904473</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>19.48502783814003</v>
+        <v>19.78969499473466</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>7.058135071334981</v>
+        <v>7.411854592996011</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.307325842600657</v>
+        <v>6.233508629456962</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5414772076798762</v>
+        <v>0.4904760083020192</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4590250753614953</v>
+        <v>0.4711535588826386</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1684729237263073</v>
+        <v>0.182483128100029</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.8882383450472874</v>
+        <v>0.9016106878362623</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>9.485023417405703</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.421440023008032</v>
+        <v>5.42144002300803</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2919788662795431</v>
@@ -749,7 +749,7 @@
         <v>0.2077620338572173</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.4612783472381191</v>
+        <v>0.4612783472381188</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>5.074014129129046</v>
+        <v>5.344932106697803</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>7.989110827676692</v>
+        <v>7.160291371489315</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4.339296542968893</v>
+        <v>4.079231095753133</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.479746811709687</v>
+        <v>2.302492895197696</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1269484426846554</v>
+        <v>0.128983324118918</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1512913106502619</v>
+        <v>0.1359747221470755</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.08922729798182613</v>
+        <v>0.08258442057366984</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1843773282644516</v>
+        <v>0.1549621977819681</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.21429762420243</v>
+        <v>17.15554016201988</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.79738461707641</v>
+        <v>18.57431069745925</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15.2130264871318</v>
+        <v>15.09611213181111</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.391723421146354</v>
+        <v>8.283126393535142</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.466526171670279</v>
+        <v>0.4942077968155639</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4099241220838813</v>
+        <v>0.4050949063608626</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3572489013696069</v>
+        <v>0.3580159755737561</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.8202798866527586</v>
+        <v>0.8191641402069769</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9405259243198929</v>
+        <v>0.501411950803659</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>8.459827036533285</v>
+        <v>9.215608765191231</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.847653261971508</v>
+        <v>2.002221870884101</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.451578452355317</v>
+        <v>2.340562941256991</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.02065834803449608</v>
+        <v>0.01301995646975008</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1500558920050884</v>
+        <v>0.1636964266161636</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05955853687615525</v>
+        <v>0.04202258864463051</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>0.2876959371761205</v>
+        <v>0.2526002306306176</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.39581392672135</v>
+        <v>13.55245324870525</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>22.64315200968198</v>
+        <v>21.18554704506495</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.85885353150823</v>
+        <v>15.3484194702123</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.035402763824667</v>
+        <v>8.398391935709006</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4533779076436773</v>
+        <v>0.4266615324928775</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4668188402814654</v>
+        <v>0.437723699481533</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3803300412823482</v>
+        <v>0.3774141067846433</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.59583353784773</v>
+        <v>1.53633864129607</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>7.749782095299684</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>2.159359978013245</v>
+        <v>2.159359978013241</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1867040421608649</v>
@@ -949,7 +949,7 @@
         <v>0.1922938557489621</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.2765395976807451</v>
+        <v>0.2765395976807445</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.46111564481254</v>
+        <v>1.045554454124274</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.805724870394287</v>
+        <v>2.12710590687806</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.94101150471573</v>
+        <v>1.292948815932598</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.01977507495204319</v>
+        <v>-0.08748731141535575</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.03567125321187425</v>
+        <v>0.02518746076836275</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02999505357922487</v>
+        <v>0.03969472641819655</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04088441858229677</v>
+        <v>0.03021964034174812</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.002077393781404279</v>
+        <v>-0.008279460960550451</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>12.60004116838223</v>
+        <v>12.93775051977603</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>13.1931099547087</v>
+        <v>13.26417145161235</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>13.28152431495242</v>
+        <v>13.38001960473414</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.430359859687246</v>
+        <v>4.543554894915166</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.3655081756454698</v>
+        <v>0.3754370482299839</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2736591087876151</v>
+        <v>0.2783535066803702</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3712967333789383</v>
+        <v>0.3630196542128988</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6812913655750126</v>
+        <v>0.6859799246848998</v>
       </c>
     </row>
     <row r="16">
@@ -1037,7 +1037,7 @@
         <v>7.06343100594245</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3.995068453532523</v>
+        <v>3.99506845353252</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2447004917849937</v>
@@ -1049,7 +1049,7 @@
         <v>0.1598120980000941</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>0.4505698123926681</v>
+        <v>0.4505698123926677</v>
       </c>
     </row>
     <row r="17">
@@ -1060,28 +1060,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>5.948571113499551</v>
+        <v>5.822369486978942</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>9.22224108063069</v>
+        <v>9.247014425166332</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3.983926817325663</v>
+        <v>3.903708212866944</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2.583433366571248</v>
+        <v>2.619879309000922</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1526827317610396</v>
+        <v>0.1497213376571157</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1815353334002002</v>
+        <v>0.1802084357818109</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.08883359455911483</v>
+        <v>0.08609934881348835</v>
       </c>
       <c r="J17" s="6" t="n">
-        <v>0.2649700676962833</v>
+        <v>0.2679124763326185</v>
       </c>
     </row>
     <row r="18">
@@ -1092,28 +1092,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>12.23745216471303</v>
+        <v>11.80295032938713</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>15.00061698791231</v>
+        <v>15.43740880437664</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>10.30340699491546</v>
+        <v>10.12637376304514</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.439203231163221</v>
+        <v>5.488648811446573</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.3502811548931603</v>
+        <v>0.3333227627771707</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3138218410017175</v>
+        <v>0.3266798412701926</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2435120910931885</v>
+        <v>0.241309642043383</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>0.6730716777040975</v>
+        <v>0.6747094603852529</v>
       </c>
     </row>
     <row r="19">
